--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>1 st</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>08/31/21 22:50:19</t>
   </si>
   <si>
     <t>Pass</t>
@@ -104,8 +113,20 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -113,7 +134,7 @@
     </row>
     <row r="3">
       <c r="G3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -121,7 +142,7 @@
     </row>
     <row r="4">
       <c r="G4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -129,7 +150,7 @@
     </row>
     <row r="5">
       <c r="G5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -137,7 +158,7 @@
     </row>
     <row r="6">
       <c r="G6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>

--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 22:50:19</t>
+    <t>08/31/21 22:51:30</t>
   </si>
   <si>
     <t>Pass</t>
@@ -133,6 +133,12 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>

--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 22:51:30</t>
+    <t>09/01/21 02:11:30</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,16 +32,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:11:30</t>
+    <t>09/01/21 02:12:31</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -117,7 +117,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -126,7 +126,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -140,18 +140,24 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -167,7 +173,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:12:31</t>
+    <t>09/01/21 02:17:35</t>
   </si>
   <si>
     <t>Not executed</t>

--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:17:35</t>
+    <t>09/01/21 02:22:47</t>
   </si>
   <si>
     <t>Not executed</t>

--- a/Reports/my_basic/tc1Analysis.xlsx
+++ b/Reports/my_basic/tc1Analysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:22:47</t>
+    <t>09/01/21 02:23:39</t>
   </si>
   <si>
     <t>Not executed</t>
